--- a/public/uploads/template_fee.xlsx
+++ b/public/uploads/template_fee.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Căn hộ</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Thời gian</t>
-  </si>
-  <si>
-    <t>Điện</t>
   </si>
   <si>
     <t>Đã thanh toán</t>
@@ -91,11 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,14 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:E3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
@@ -395,32 +395,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>50002</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43040</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/uploads/template_fee.xlsx
+++ b/public/uploads/template_fee.xlsx
@@ -27,18 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Căn hộ</t>
   </si>
   <si>
-    <t>Loại phí</t>
-  </si>
-  <si>
     <t>Số tiền</t>
   </si>
   <si>
     <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Hạn nộp</t>
+  </si>
+  <si>
+    <t>Loại Phí</t>
   </si>
   <si>
     <t>Đã thanh toán</t>
@@ -48,8 +51,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,13 +93,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,34 +384,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
